--- a/aboutData/TerrainData.xlsx
+++ b/aboutData/TerrainData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="10650"/>
+    <workbookView windowWidth="18630" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地形描述</t>
     </r>
     <r>
@@ -159,6 +165,12 @@
   <si>
     <t>ForestItem</t>
   </si>
+  <si>
+    <t>高山</t>
+  </si>
+  <si>
+    <t>矿山</t>
+  </si>
 </sst>
 </file>
 
@@ -166,9 +178,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -203,6 +215,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -211,81 +290,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -294,6 +298,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -304,44 +323,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,31 +403,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,67 +517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +541,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,37 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,24 +584,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,19 +600,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +621,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -631,6 +647,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,26 +684,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,16 +714,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,115 +732,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,7 +1217,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1415,16 +1427,24 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="6">
+        <v>100006</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="6">
+        <v>100007</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>

--- a/aboutData/TerrainData.xlsx
+++ b/aboutData/TerrainData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18630" windowHeight="10650"/>
+    <workbookView windowWidth="21780" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,40 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>admin</author>
-  </authors>
-  <commentList>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>品质:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0 ~ 6</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -169,6 +137,9 @@
     <t>高山</t>
   </si>
   <si>
+    <t>HillItem06</t>
+  </si>
+  <si>
     <t>矿山</t>
   </si>
 </sst>
@@ -179,10 +150,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,73 +186,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -290,6 +194,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -298,18 +216,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,8 +262,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -340,20 +325,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,17 +335,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -403,187 +363,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,8 +560,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +577,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,24 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -702,10 +662,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,133 +674,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,7 +1177,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1433,9 +1393,15 @@
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
@@ -1443,11 +1409,17 @@
         <v>100007</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
@@ -1638,7 +1610,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/aboutData/TerrainData.xlsx
+++ b/aboutData/TerrainData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21780" windowHeight="9600"/>
+    <workbookView windowWidth="18030" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -33,7 +33,7 @@
     <t>assetName</t>
   </si>
   <si>
-    <t>quality</t>
+    <t>landSurfaceType</t>
   </si>
   <si>
     <t>int</t>
@@ -92,13 +92,19 @@
     <t>资源名称</t>
   </si>
   <si>
-    <t>品质</t>
+    <t>地形类型</t>
   </si>
   <si>
     <t>int,Single</t>
   </si>
   <si>
     <t>String,Single</t>
+  </si>
+  <si>
+    <t>基础地形</t>
+  </si>
+  <si>
+    <t>LandItem</t>
   </si>
   <si>
     <t>深海</t>
@@ -149,8 +155,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -186,6 +192,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -195,14 +252,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,120 +337,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -363,25 +369,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,157 +525,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,15 +560,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,54 +574,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,6 +595,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -654,6 +645,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -662,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,133 +680,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -808,22 +814,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1174,437 +1180,290 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="39.375" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="2">
         <v>100000</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="6">
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:6">
+      <c r="A7" s="2">
+        <v>100001</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6"/>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" customFormat="1" spans="1:6">
-      <c r="A7" s="6">
-        <v>100001</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6">
+    <row r="8" s="2" customFormat="1" spans="1:6">
+      <c r="A8" s="2">
+        <v>100002</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" customFormat="1" spans="1:6">
-      <c r="A8" s="6">
-        <v>100002</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6">
+    <row r="9" s="2" customFormat="1" spans="1:6">
+      <c r="A9" s="2">
+        <v>100003</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" customFormat="1" spans="1:6">
-      <c r="A9" s="6">
-        <v>100003</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6">
+    <row r="10" s="2" customFormat="1" spans="1:6">
+      <c r="A10" s="2">
+        <v>100004</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" customFormat="1" spans="1:6">
-      <c r="A10" s="6">
-        <v>100004</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6">
+    <row r="11" s="2" customFormat="1" spans="1:6">
+      <c r="A11" s="2">
+        <v>100005</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" customFormat="1" spans="1:6">
-      <c r="A11" s="6">
-        <v>100005</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6">
+    <row r="12" s="2" customFormat="1" spans="1:6">
+      <c r="A12" s="2">
+        <v>100006</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6">
-        <v>100006</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6">
+      <c r="A13" s="2">
         <v>100007</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="A14" s="2">
+        <v>100008</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aboutData/TerrainData.xlsx
+++ b/aboutData/TerrainData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18030" windowHeight="9600"/>
+    <workbookView windowWidth="23355" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -199,7 +199,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -207,6 +268,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -215,29 +277,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,91 +337,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -369,19 +369,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,163 +531,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,21 +560,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,16 +582,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,22 +591,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +636,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -668,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,16 +680,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,115 +698,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1293,10 +1293,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>

--- a/aboutData/TerrainData.xlsx
+++ b/aboutData/TerrainData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23355" windowHeight="11550"/>
+    <workbookView windowWidth="22515" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -199,10 +199,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,37 +240,89 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,82 +336,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -369,187 +369,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,6 +560,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,6 +594,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,11 +639,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,30 +660,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -668,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,103 +680,121 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,28 +803,10 @@
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1313,10 +1313,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D7" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -1333,10 +1333,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D8" s="2">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
